--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>420602.3119327548</v>
+        <v>470436.9762088063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7975982.749418644</v>
+        <v>7988609.012955563</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.4513393960319</v>
+        <v>101.0267518154004</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>155.2773746523704</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,7 +826,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -868,22 +868,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>88.80044720694346</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>103.2201137417341</v>
       </c>
       <c r="F5" t="n">
-        <v>101.4948245675916</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>184.8333783299116</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>100.1462320876376</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>166.6694696476802</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>33.16817547790426</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.19381364930031</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>15.57230972412386</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>212.60069688548</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>90.9796478308906</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>281.6392935584441</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>422.3799950099422</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>173.795002908892</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>214.2857264221709</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.17722654850333</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245674</v>
       </c>
       <c r="C17" t="n">
-        <v>165.7499153537892</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>129.7139627068454</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>157.8824880649885</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>91.39226931002106</v>
+        <v>90.97964783088963</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,16 +2293,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>248.9284599389404</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>245.65583779806</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2536,10 +2536,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068459</v>
       </c>
       <c r="X25" t="n">
-        <v>99.28616603324264</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>133.3709995376072</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904421</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>86.27769679771725</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>161.4887027346014</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112168</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>26.70160847752084</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225694</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3509,7 +3509,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>50.3082548690714</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>116.3527098704448</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3794,7 +3794,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561542</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3907,16 +3907,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225774</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>255.556068676568</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660770962</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4189,7 +4189,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>113.7218216744503</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4198,10 +4198,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.5168885550254</v>
+        <v>1669.891467141196</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>1231.748994324619</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>795.8392094990634</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>362.0644646573586</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805617</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489122</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797682</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756277</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2196.14192482635</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>2196.14192482635</v>
       </c>
       <c r="W2" t="n">
-        <v>709.6437982983157</v>
+        <v>1791.286470237383</v>
       </c>
       <c r="X2" t="n">
-        <v>694.5417389180304</v>
+        <v>1776.184410857098</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.2960192580879</v>
+        <v>1771.938691197156</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021817</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1191.83974985846</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005013</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1002.629046331967</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481284</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>833.8601182143123</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305247</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>818.1881391909823</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1142.746464157195</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1189.749864474358</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474358</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474358</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474358</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474358</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782918</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449414994</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957717</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288318</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288287</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350286</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.95332708348</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.08589132236</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.600112101581</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1097.285950678907</v>
+        <v>951.4583911238242</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>778.8966796070491</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>613.0186868085718</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>443.2606830593091</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593091</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851368</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018667</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148765</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860121</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>828.6553060539732</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1688.18808431321</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.857333538991</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214705</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512702</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2028.825591091157</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1750.392590344262</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>1750.392590344262</v>
       </c>
       <c r="W4" t="n">
-        <v>1516.524240083786</v>
+        <v>1478.366185930554</v>
       </c>
       <c r="X4" t="n">
-        <v>1516.524240083786</v>
+        <v>1232.974431263966</v>
       </c>
       <c r="Y4" t="n">
-        <v>1289.104569397894</v>
+        <v>1143.277009842811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>628.8817772575625</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C5" t="n">
-        <v>594.7797084813899</v>
+        <v>614.758195394171</v>
       </c>
       <c r="D5" t="n">
-        <v>166.1980342186582</v>
+        <v>582.8888146090196</v>
       </c>
       <c r="E5" t="n">
-        <v>136.4636934173575</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1074.529126782698</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1059.427067402413</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1055.18134774247</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>637.4636583561241</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C7" t="n">
-        <v>464.9019468393491</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>464.9019468393491</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2461.942622985374</v>
       </c>
       <c r="U7" t="n">
-        <v>1429.886162364244</v>
+        <v>2183.509622238479</v>
       </c>
       <c r="V7" t="n">
-        <v>1429.886162364244</v>
+        <v>1896.55411410891</v>
       </c>
       <c r="W7" t="n">
-        <v>1157.859757950536</v>
+        <v>1624.527709695201</v>
       </c>
       <c r="X7" t="n">
-        <v>1056.701947761003</v>
+        <v>1379.135955028614</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.2822770751113</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.134372851938</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.032304075766</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>922.1225192502102</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>753.7695196060888</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>325.9020900152965</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152965</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851274</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576078</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576078</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576078</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743897</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377074</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.639258956385</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296442</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.2450492336731</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>600.683337716898</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>600.683337716898</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>430.9253339676353</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943382</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>460.9690517075368</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>460.9690517075368</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651814</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090963</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.178951631009</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.299505209464</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1292.866504462569</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1005.910996333</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1005.910996333</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1005.910996333</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>778.4913256471077</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2336.30874198473</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1462.256484342598</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1028.481739500893</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>600.6143099101009</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>4724.179740992068</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>4724.179740992068</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4724.179740992068</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4724.179740992068</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="12">
@@ -5127,13 +5127,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>914.5724765508969</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111518</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>2023.790636552847</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2511.87917085155</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3346.464865036804</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2938.178741336458</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1006.036133543734</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>833.4744220269588</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="E16" t="n">
         <v>667.5964292284815</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2229.648090158478</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1942.692582028908</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1670.6661776152</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1425.274422948613</v>
       </c>
       <c r="Y16" t="n">
-        <v>1175.794137292997</v>
+        <v>1197.854752262721</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5519,46 +5519,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2492.071939528658</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O17" t="n">
-        <v>3472.251606098964</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>1078.256218512436</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776221</v>
+        <v>905.6945069956607</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>739.8165141971834</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>570.0585104479208</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>393.351456409677</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>227.7601814355046</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5677,10 +5677,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.379689494032</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.424181364463</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1497.494507917314</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1270.074837231423</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146351</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>385.866131237899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J20" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5887,25 +5887,25 @@
         <v>1087.134188067672</v>
       </c>
       <c r="C22" t="n">
-        <v>914.5724765508968</v>
+        <v>914.5724765508967</v>
       </c>
       <c r="D22" t="n">
-        <v>748.6944837524195</v>
+        <v>748.6944837524194</v>
       </c>
       <c r="E22" t="n">
-        <v>578.9364800031568</v>
+        <v>578.9364800031567</v>
       </c>
       <c r="F22" t="n">
-        <v>402.229425964913</v>
+        <v>402.2294259649129</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907407</v>
+        <v>236.6381509907406</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111515</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111515</v>
       </c>
       <c r="J22" t="n">
         <v>183.315661845805</v>
@@ -5914,10 +5914,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,22 +5932,22 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="V22" t="n">
-        <v>1778.398881886259</v>
+        <v>1999.901442036169</v>
       </c>
       <c r="W22" t="n">
-        <v>1506.372477472551</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X22" t="n">
         <v>1506.372477472551</v>
@@ -5987,25 +5987,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300484</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1003.573296407379</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562605</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577832</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.710185817961</v>
+        <v>1090.187678435287</v>
       </c>
       <c r="C34" t="n">
-        <v>926.1484743011861</v>
+        <v>917.6259669185116</v>
       </c>
       <c r="D34" t="n">
-        <v>760.2704815027088</v>
+        <v>751.7479741200343</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>581.9899703707715</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>405.2829163325277</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6859,7 +6859,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6889,19 +6889,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V34" t="n">
-        <v>2035.366634303136</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W34" t="n">
-        <v>1763.340229889428</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X34" t="n">
-        <v>1517.94847522284</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y34" t="n">
-        <v>1290.528804536948</v>
+        <v>1282.006297154274</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004243</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1035.728611060352</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7099,7 +7099,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1454.966900465231</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1227.547229779339</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,19 +7181,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7205,19 +7205,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>832.0502353276421</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2579.974639110826</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2334.095192689281</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2055.662191942386</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1768.706683812817</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1496.680279399108</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.288524732521</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1023.868854046629</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7406,40 +7406,40 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912874</v>
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>832.0502353276421</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D43" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E43" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2055.662191942386</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1768.706683812817</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1496.680279399108</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.288524732521</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1023.868854046629</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7643,55 +7643,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7786,31 +7786,31 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674088</v>
+        <v>842.8792965674089</v>
       </c>
       <c r="E46" t="n">
-        <v>673.121292818146</v>
+        <v>673.1212928181461</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799022</v>
+        <v>496.4142387799023</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057299</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961044</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
         <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7822,7 +7822,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
         <v>2718.920450173579</v>
@@ -7837,19 +7837,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2177.511286811514</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1890.555778681944</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1618.529374268236</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1373.137619601648</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>479.9987875054293</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>404.0898091700242</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>310.9272166398487</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314092</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,10 +8614,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>63.4939156698976</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,22 +8696,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>309.6062697457101</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>113.7566596602937</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,25 +9167,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>655.4488659041854</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505214</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>184.7831561774888</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>268.0111327346211</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,16 +23464,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.446659489829699</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>11.38105307846871</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>185.1957776566197</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>61.36294431725478</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>175.9682474305295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>267.5985112554913</v>
       </c>
       <c r="C17" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.78918985968383</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>267.5985112554907</v>
+        <v>268.0111327346221</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>35.15749310933344</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>23.65030257151142</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="X25" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>37.46509486400015</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>81.78272691405286</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.446659489829244</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>144.1344859240865</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>41.29624514453855</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>20.09260206285769</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>144.1344859240876</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>695852.1260509733</v>
+        <v>699739.8321116482</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>695852.1260509733</v>
+        <v>700840.7268740402</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>696577.2479637202</v>
+        <v>700840.7268740402</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670332.3739528466</v>
+        <v>670332.3739528464</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698621.1661345445</v>
+        <v>698621.1661345444</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698621.1661345445</v>
+        <v>698621.1661345444</v>
       </c>
     </row>
     <row r="14">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254669.9769479441</v>
+        <v>254669.976947944</v>
       </c>
       <c r="C2" t="n">
         <v>254669.976947944</v>
       </c>
       <c r="D2" t="n">
-        <v>254669.9769479441</v>
+        <v>254669.976947944</v>
       </c>
       <c r="E2" t="n">
         <v>240123.8515365463</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390697</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.0085678454</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228853</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932124</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
         <v>26563.08616012788</v>
@@ -26448,13 +26448,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
+        <v>27684.07875020268</v>
+      </c>
+      <c r="N4" t="n">
         <v>27684.07875020264</v>
       </c>
-      <c r="N4" t="n">
-        <v>27684.07875020268</v>
-      </c>
       <c r="O4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="P4" t="n">
         <v>27684.07875020269</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814187</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128378.4983094503</v>
+        <v>-163931.7990369858</v>
       </c>
       <c r="C6" t="n">
-        <v>13812.8023502596</v>
+        <v>32359.60778025945</v>
       </c>
       <c r="D6" t="n">
-        <v>8047.429034259432</v>
+        <v>49700.1521541664</v>
       </c>
       <c r="E6" t="n">
-        <v>-83757.87065325645</v>
+        <v>-21770.21066614031</v>
       </c>
       <c r="F6" t="n">
-        <v>140041.4230987709</v>
+        <v>139964.8645439741</v>
       </c>
       <c r="G6" t="n">
-        <v>140041.4230987709</v>
+        <v>139964.864543974</v>
       </c>
       <c r="H6" t="n">
-        <v>140041.4230987709</v>
+        <v>139964.8645439741</v>
       </c>
       <c r="I6" t="n">
-        <v>126490.3194764077</v>
+        <v>126467.095137025</v>
       </c>
       <c r="J6" t="n">
-        <v>33840.569764257</v>
+        <v>-15776.01871574847</v>
       </c>
       <c r="K6" t="n">
-        <v>144855.0351092471</v>
+        <v>131017.8022020192</v>
       </c>
       <c r="L6" t="n">
-        <v>135907.4240207373</v>
+        <v>144831.8107698645</v>
       </c>
       <c r="M6" t="n">
-        <v>-41935.95150122046</v>
+        <v>9841.866156861108</v>
       </c>
       <c r="N6" t="n">
-        <v>144855.0351092472</v>
+        <v>144831.8107698646</v>
       </c>
       <c r="O6" t="n">
-        <v>144855.0351092472</v>
+        <v>144831.8107698646</v>
       </c>
       <c r="P6" t="n">
-        <v>144855.0351092472</v>
+        <v>144831.8107698645</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,10 +26802,10 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.6741497305236</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305236</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305236</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.5852353840268</v>
+        <v>321.0098229646583</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,13 +27430,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15.55871974923696</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>136.3450267720893</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
+        <v>326.2168836515537</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>322.0939307272927</v>
-      </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>58.58727362741769</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>142.7916050322841</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7675277456076</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>367.6387245651728</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.7066188824969</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>227.3655273957978</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-2.895907565613612e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>479.9987875054293</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773334</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>404.0898091700242</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>310.9272166398487</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314092</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,19 +35246,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,19 +35334,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>63.4939156698976</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,22 +35416,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>309.6062697457101</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>113.7566596602937</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35650,25 +35650,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,25 +35887,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>655.4488659041854</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36534,7 +36534,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37230,7 +37230,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37312,7 +37312,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37856,7 +37856,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37941,7 +37941,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505214</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38093,7 +38093,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165066</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
